--- a/hw02/hw02.xlsx
+++ b/hw02/hw02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jack\NTHU\2020_spring\Algorithm_EE39800\hw02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A1C2AC-0ECB-4812-8206-F513C3422F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD52DBB5-EF1F-4823-AC90-1D567BBA271B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4607EA84-D7AC-4BA6-91F1-978F57D29EF1}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4607EA84-D7AC-4BA6-91F1-978F57D29EF1}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>N(num)</t>
   </si>
@@ -339,28 +339,28 @@
                   <c:v>2.0027160000000001E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6369089999999998E-7</c:v>
+                  <c:v>2.5796890000000001E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8003920000000002E-7</c:v>
+                  <c:v>3.843307E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5183639999999996E-7</c:v>
+                  <c:v>6.4611430000000004E-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2059209999999999E-6</c:v>
+                  <c:v>1.306057E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2883420000000001E-6</c:v>
+                  <c:v>2.2702220000000001E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4798849999999999E-6</c:v>
+                  <c:v>4.506111E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.4419249999999996E-6</c:v>
+                  <c:v>8.4261890000000006E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6742229999999999E-5</c:v>
+                  <c:v>1.6819950000000001E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -453,31 +453,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.8405910000000001E-7</c:v>
+                  <c:v>1.8358230000000001E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6178359999999999E-7</c:v>
+                  <c:v>2.5224689999999998E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5619740000000002E-7</c:v>
+                  <c:v>3.6382679999999998E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6.0605999999999996E-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0700229999999999E-6</c:v>
+                  <c:v>1.0857579999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0341869999999998E-6</c:v>
+                  <c:v>2.0418169999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7879939999999998E-6</c:v>
+                  <c:v>3.7860869999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.4100490000000001E-6</c:v>
+                  <c:v>7.3981289999999997E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6572E-5</c:v>
+                  <c:v>1.5759940000000001E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -570,31 +570,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.9407269999999999E-7</c:v>
+                  <c:v>2.3412699999999999E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1600719999999999E-7</c:v>
+                  <c:v>4.959106E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7608869999999998E-7</c:v>
+                  <c:v>4.4202799999999999E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.838539E-7</c:v>
+                  <c:v>7.1001049999999995E-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6804890000000004E-7</c:v>
+                  <c:v>1.2817379999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2001989999999999E-6</c:v>
+                  <c:v>2.332211E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1438600000000001E-6</c:v>
+                  <c:v>4.5356750000000004E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1003229999999999E-6</c:v>
+                  <c:v>8.8744159999999997E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.4381100000000004E-6</c:v>
+                  <c:v>1.7804150000000001E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1097,31 +1097,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.4175639999999998E-7</c:v>
+                  <c:v>2.3984909999999998E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7792660000000004E-7</c:v>
+                  <c:v>3.8576129999999999E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3610079999999998E-7</c:v>
+                  <c:v>6.3800810000000002E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.171589E-6</c:v>
+                  <c:v>1.162052E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2363659999999998E-6</c:v>
+                  <c:v>2.2377970000000001E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4436449999999999E-6</c:v>
+                  <c:v>4.3463710000000003E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.721828E-6</c:v>
+                  <c:v>8.5740089999999992E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.703405E-5</c:v>
+                  <c:v>1.6997809999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.395176E-5</c:v>
+                  <c:v>3.3946039999999999E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1217,28 +1217,28 @@
                   <c:v>2.260208E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5190579999999999E-7</c:v>
+                  <c:v>3.4809110000000001E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7983400000000003E-7</c:v>
+                  <c:v>5.8794020000000005E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0461809999999999E-6</c:v>
+                  <c:v>1.0643009999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0141599999999999E-6</c:v>
+                  <c:v>1.9860269999999998E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.874302E-6</c:v>
+                  <c:v>3.9601329999999998E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.602215E-6</c:v>
+                  <c:v>7.6160429999999997E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5088080000000001E-5</c:v>
+                  <c:v>1.507378E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0312060000000001E-5</c:v>
+                  <c:v>3.005791E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1331,31 +1331,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.6832350000000001E-7</c:v>
+                  <c:v>1.9979480000000001E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1171570000000001E-7</c:v>
+                  <c:v>2.8991700000000001E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7799610000000002E-7</c:v>
+                  <c:v>4.2629240000000001E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1818619999999999E-7</c:v>
+                  <c:v>6.9761279999999995E-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6995619999999998E-7</c:v>
+                  <c:v>1.2660029999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2001989999999999E-6</c:v>
+                  <c:v>2.3622509999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2640229999999998E-6</c:v>
+                  <c:v>4.548073E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.3721199999999997E-6</c:v>
+                  <c:v>8.9159009999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.8682170000000007E-6</c:v>
+                  <c:v>1.7685889999999999E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1861,28 +1861,28 @@
                   <c:v>2.0027160000000001E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6369089999999998E-7</c:v>
+                  <c:v>2.5796890000000001E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8003920000000002E-7</c:v>
+                  <c:v>3.843307E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5183639999999996E-7</c:v>
+                  <c:v>6.4611430000000004E-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2059209999999999E-6</c:v>
+                  <c:v>1.306057E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2883420000000001E-6</c:v>
+                  <c:v>2.2702220000000001E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4798849999999999E-6</c:v>
+                  <c:v>4.506111E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.4419249999999996E-6</c:v>
+                  <c:v>8.4261890000000006E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6742229999999999E-5</c:v>
+                  <c:v>1.6819950000000001E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1975,31 +1975,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.4175639999999998E-7</c:v>
+                  <c:v>2.3984909999999998E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7792660000000004E-7</c:v>
+                  <c:v>3.8576129999999999E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3610079999999998E-7</c:v>
+                  <c:v>6.3800810000000002E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.171589E-6</c:v>
+                  <c:v>1.162052E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2363659999999998E-6</c:v>
+                  <c:v>2.2377970000000001E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4436449999999999E-6</c:v>
+                  <c:v>4.3463710000000003E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.721828E-6</c:v>
+                  <c:v>8.5740089999999992E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.703405E-5</c:v>
+                  <c:v>1.6997809999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.395176E-5</c:v>
+                  <c:v>3.3946039999999999E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2515,31 +2515,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.8405910000000001E-7</c:v>
+                  <c:v>1.8358230000000001E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6178359999999999E-7</c:v>
+                  <c:v>2.5224689999999998E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5619740000000002E-7</c:v>
+                  <c:v>3.6382679999999998E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6.0605999999999996E-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0700229999999999E-6</c:v>
+                  <c:v>1.0857579999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0341869999999998E-6</c:v>
+                  <c:v>2.0418169999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7879939999999998E-6</c:v>
+                  <c:v>3.7860869999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.4100490000000001E-6</c:v>
+                  <c:v>7.3981289999999997E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6572E-5</c:v>
+                  <c:v>1.5759940000000001E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2635,28 +2635,28 @@
                   <c:v>2.260208E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5190579999999999E-7</c:v>
+                  <c:v>3.4809110000000001E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7983400000000003E-7</c:v>
+                  <c:v>5.8794020000000005E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0461809999999999E-6</c:v>
+                  <c:v>1.0643009999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0141599999999999E-6</c:v>
+                  <c:v>1.9860269999999998E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.874302E-6</c:v>
+                  <c:v>3.9601329999999998E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.602215E-6</c:v>
+                  <c:v>7.6160429999999997E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5088080000000001E-5</c:v>
+                  <c:v>1.507378E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0312060000000001E-5</c:v>
+                  <c:v>3.005791E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3165,31 +3165,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.9407269999999999E-7</c:v>
+                  <c:v>2.3412699999999999E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1600719999999999E-7</c:v>
+                  <c:v>4.959106E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7608869999999998E-7</c:v>
+                  <c:v>4.4202799999999999E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.838539E-7</c:v>
+                  <c:v>7.1001049999999995E-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6804890000000004E-7</c:v>
+                  <c:v>1.2817379999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2001989999999999E-6</c:v>
+                  <c:v>2.332211E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1438600000000001E-6</c:v>
+                  <c:v>4.5356750000000004E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1003229999999999E-6</c:v>
+                  <c:v>8.8744159999999997E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.4381100000000004E-6</c:v>
+                  <c:v>1.7804150000000001E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3282,31 +3282,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.6832350000000001E-7</c:v>
+                  <c:v>1.9979480000000001E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1171570000000001E-7</c:v>
+                  <c:v>2.8991700000000001E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7799610000000002E-7</c:v>
+                  <c:v>4.2629240000000001E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1818619999999999E-7</c:v>
+                  <c:v>6.9761279999999995E-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6995619999999998E-7</c:v>
+                  <c:v>1.2660029999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2001989999999999E-6</c:v>
+                  <c:v>2.3622509999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2640229999999998E-6</c:v>
+                  <c:v>4.548073E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.3721199999999997E-6</c:v>
+                  <c:v>8.9159009999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.8682170000000007E-6</c:v>
+                  <c:v>1.7685889999999999E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3351,6 +3351,36 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3414,6 +3444,36 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3702,28 +3762,28 @@
                   <c:v>2.0027160000000001E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6369089999999998E-7</c:v>
+                  <c:v>2.5796890000000001E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8003920000000002E-7</c:v>
+                  <c:v>3.843307E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5183639999999996E-7</c:v>
+                  <c:v>6.4611430000000004E-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2059209999999999E-6</c:v>
+                  <c:v>1.306057E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2883420000000001E-6</c:v>
+                  <c:v>2.2702220000000001E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4798849999999999E-6</c:v>
+                  <c:v>4.506111E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.4419249999999996E-6</c:v>
+                  <c:v>8.4261890000000006E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6742229999999999E-5</c:v>
+                  <c:v>1.6819950000000001E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3816,31 +3876,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.8405910000000001E-7</c:v>
+                  <c:v>1.8358230000000001E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6178359999999999E-7</c:v>
+                  <c:v>2.5224689999999998E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5619740000000002E-7</c:v>
+                  <c:v>3.6382679999999998E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6.0605999999999996E-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0700229999999999E-6</c:v>
+                  <c:v>1.0857579999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0341869999999998E-6</c:v>
+                  <c:v>2.0418169999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7879939999999998E-6</c:v>
+                  <c:v>3.7860869999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.4100490000000001E-6</c:v>
+                  <c:v>7.3981289999999997E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6572E-5</c:v>
+                  <c:v>1.5759940000000001E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3933,31 +3993,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.9407269999999999E-7</c:v>
+                  <c:v>2.3412699999999999E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1600719999999999E-7</c:v>
+                  <c:v>4.959106E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7608869999999998E-7</c:v>
+                  <c:v>4.4202799999999999E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.838539E-7</c:v>
+                  <c:v>7.1001049999999995E-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6804890000000004E-7</c:v>
+                  <c:v>1.2817379999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2001989999999999E-6</c:v>
+                  <c:v>2.332211E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1438600000000001E-6</c:v>
+                  <c:v>4.5356750000000004E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1003229999999999E-6</c:v>
+                  <c:v>8.8744159999999997E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.4381100000000004E-6</c:v>
+                  <c:v>1.7804150000000001E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4469,31 +4529,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.4175639999999998E-7</c:v>
+                  <c:v>2.3984909999999998E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7792660000000004E-7</c:v>
+                  <c:v>3.8576129999999999E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3610079999999998E-7</c:v>
+                  <c:v>6.3800810000000002E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.171589E-6</c:v>
+                  <c:v>1.162052E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2363659999999998E-6</c:v>
+                  <c:v>2.2377970000000001E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4436449999999999E-6</c:v>
+                  <c:v>4.3463710000000003E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.721828E-6</c:v>
+                  <c:v>8.5740089999999992E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.703405E-5</c:v>
+                  <c:v>1.6997809999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.395176E-5</c:v>
+                  <c:v>3.3946039999999999E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4589,28 +4649,28 @@
                   <c:v>2.260208E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5190579999999999E-7</c:v>
+                  <c:v>3.4809110000000001E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7983400000000003E-7</c:v>
+                  <c:v>5.8794020000000005E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0461809999999999E-6</c:v>
+                  <c:v>1.0643009999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0141599999999999E-6</c:v>
+                  <c:v>1.9860269999999998E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.874302E-6</c:v>
+                  <c:v>3.9601329999999998E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.602215E-6</c:v>
+                  <c:v>7.6160429999999997E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5088080000000001E-5</c:v>
+                  <c:v>1.507378E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0312060000000001E-5</c:v>
+                  <c:v>3.005791E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4630,9 +4690,6 @@
               <c:f>工作表1!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Random-directional</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4703,31 +4760,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.6832350000000001E-7</c:v>
+                  <c:v>1.9979480000000001E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1171570000000001E-7</c:v>
+                  <c:v>2.8991700000000001E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7799610000000002E-7</c:v>
+                  <c:v>4.2629240000000001E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1818619999999999E-7</c:v>
+                  <c:v>6.9761279999999995E-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6995619999999998E-7</c:v>
+                  <c:v>1.2660029999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2001989999999999E-6</c:v>
+                  <c:v>2.3622509999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2640229999999998E-6</c:v>
+                  <c:v>4.548073E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.3721199999999997E-6</c:v>
+                  <c:v>8.9159009999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.8682170000000007E-6</c:v>
+                  <c:v>1.7685889999999999E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9518,8 +9575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DEF68A-22A8-4540-ADAD-C8C717CFF801}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -9555,9 +9612,7 @@
       <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="J1" s="2"/>
       <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
@@ -9585,43 +9640,40 @@
         <v>2.0027160000000001E-7</v>
       </c>
       <c r="C2">
-        <v>1.8405910000000001E-7</v>
+        <v>1.8358230000000001E-7</v>
       </c>
       <c r="D2">
-        <v>1.9407269999999999E-7</v>
+        <v>2.3412699999999999E-7</v>
       </c>
       <c r="F2">
         <v>10</v>
       </c>
       <c r="G2">
-        <v>2.4175639999999998E-7</v>
+        <v>2.3984909999999998E-7</v>
       </c>
       <c r="H2">
         <v>2.260208E-7</v>
       </c>
       <c r="I2">
-        <v>1.6832350000000001E-7</v>
-      </c>
-      <c r="J2">
-        <v>2.0027160000000001E-7</v>
+        <v>1.9979480000000001E-7</v>
       </c>
       <c r="L2">
         <v>2.0027160000000001E-7</v>
       </c>
       <c r="M2">
-        <v>1.8405910000000001E-7</v>
+        <v>1.8358230000000001E-7</v>
       </c>
       <c r="N2">
-        <v>1.9407269999999999E-7</v>
+        <v>2.3412699999999999E-7</v>
       </c>
       <c r="O2">
-        <v>2.4175639999999998E-7</v>
+        <v>2.3984909999999998E-7</v>
       </c>
       <c r="P2">
         <v>2.260208E-7</v>
       </c>
       <c r="Q2">
-        <v>2.0027160000000001E-7</v>
+        <v>1.9979480000000001E-7</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -9629,46 +9681,43 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>2.6369089999999998E-7</v>
+        <v>2.5796890000000001E-7</v>
       </c>
       <c r="C3">
-        <v>2.6178359999999999E-7</v>
+        <v>2.5224689999999998E-7</v>
       </c>
       <c r="D3">
-        <v>2.1600719999999999E-7</v>
+        <v>4.959106E-7</v>
       </c>
       <c r="F3">
         <v>20</v>
       </c>
       <c r="G3">
-        <v>5.7792660000000004E-7</v>
+        <v>3.8576129999999999E-7</v>
       </c>
       <c r="H3">
-        <v>3.5190579999999999E-7</v>
+        <v>3.4809110000000001E-7</v>
       </c>
       <c r="I3">
-        <v>2.1171570000000001E-7</v>
-      </c>
-      <c r="J3">
-        <v>2.7561189999999997E-7</v>
+        <v>2.8991700000000001E-7</v>
       </c>
       <c r="L3">
-        <v>2.6369089999999998E-7</v>
+        <v>2.5796890000000001E-7</v>
       </c>
       <c r="M3">
-        <v>2.6178359999999999E-7</v>
+        <v>2.5224689999999998E-7</v>
       </c>
       <c r="N3">
-        <v>2.1600719999999999E-7</v>
+        <v>4.959106E-7</v>
       </c>
       <c r="O3">
-        <v>5.7792660000000004E-7</v>
+        <v>3.8576129999999999E-7</v>
       </c>
       <c r="P3">
-        <v>3.5190579999999999E-7</v>
+        <v>3.4809110000000001E-7</v>
       </c>
       <c r="Q3">
-        <v>2.7561189999999997E-7</v>
+        <v>2.8991700000000001E-7</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -9676,46 +9725,43 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>3.8003920000000002E-7</v>
+        <v>3.843307E-7</v>
       </c>
       <c r="C4">
-        <v>3.5619740000000002E-7</v>
+        <v>3.6382679999999998E-7</v>
       </c>
       <c r="D4">
-        <v>2.7608869999999998E-7</v>
+        <v>4.4202799999999999E-7</v>
       </c>
       <c r="F4">
         <v>40</v>
       </c>
       <c r="G4">
-        <v>6.3610079999999998E-7</v>
+        <v>6.3800810000000002E-7</v>
       </c>
       <c r="H4">
-        <v>5.7983400000000003E-7</v>
+        <v>5.8794020000000005E-7</v>
       </c>
       <c r="I4">
-        <v>2.7799610000000002E-7</v>
-      </c>
-      <c r="J4">
-        <v>4.0626529999999999E-7</v>
+        <v>4.2629240000000001E-7</v>
       </c>
       <c r="L4">
-        <v>3.8003920000000002E-7</v>
+        <v>3.843307E-7</v>
       </c>
       <c r="M4">
-        <v>3.5619740000000002E-7</v>
+        <v>3.6382679999999998E-7</v>
       </c>
       <c r="N4">
-        <v>2.7608869999999998E-7</v>
+        <v>4.4202799999999999E-7</v>
       </c>
       <c r="O4">
-        <v>6.3610079999999998E-7</v>
+        <v>6.3800810000000002E-7</v>
       </c>
       <c r="P4">
-        <v>5.7983400000000003E-7</v>
+        <v>5.8794020000000005E-7</v>
       </c>
       <c r="Q4">
-        <v>4.0626529999999999E-7</v>
+        <v>4.2629240000000001E-7</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -9723,46 +9769,43 @@
         <v>80</v>
       </c>
       <c r="B5">
-        <v>6.5183639999999996E-7</v>
+        <v>6.4611430000000004E-7</v>
       </c>
       <c r="C5">
         <v>6.0605999999999996E-7</v>
       </c>
       <c r="D5">
-        <v>3.838539E-7</v>
+        <v>7.1001049999999995E-7</v>
       </c>
       <c r="F5">
         <v>80</v>
       </c>
       <c r="G5">
-        <v>1.171589E-6</v>
+        <v>1.162052E-6</v>
       </c>
       <c r="H5">
-        <v>1.0461809999999999E-6</v>
+        <v>1.0643009999999999E-6</v>
       </c>
       <c r="I5">
-        <v>4.1818619999999999E-7</v>
-      </c>
-      <c r="J5">
-        <v>6.7615509999999995E-7</v>
+        <v>6.9761279999999995E-7</v>
       </c>
       <c r="L5">
-        <v>6.5183639999999996E-7</v>
+        <v>6.4611430000000004E-7</v>
       </c>
       <c r="M5">
         <v>6.0605999999999996E-7</v>
       </c>
       <c r="N5">
-        <v>3.838539E-7</v>
+        <v>7.1001049999999995E-7</v>
       </c>
       <c r="O5">
-        <v>1.171589E-6</v>
+        <v>1.162052E-6</v>
       </c>
       <c r="P5">
-        <v>1.0461809999999999E-6</v>
+        <v>1.0643009999999999E-6</v>
       </c>
       <c r="Q5">
-        <v>6.7615509999999995E-7</v>
+        <v>6.9761279999999995E-7</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -9770,46 +9813,43 @@
         <v>160</v>
       </c>
       <c r="B6">
-        <v>1.2059209999999999E-6</v>
+        <v>1.306057E-6</v>
       </c>
       <c r="C6">
-        <v>1.0700229999999999E-6</v>
+        <v>1.0857579999999999E-6</v>
       </c>
       <c r="D6">
-        <v>6.6804890000000004E-7</v>
+        <v>1.2817379999999999E-6</v>
       </c>
       <c r="F6">
         <v>160</v>
       </c>
       <c r="G6">
-        <v>2.2363659999999998E-6</v>
+        <v>2.2377970000000001E-6</v>
       </c>
       <c r="H6">
-        <v>2.0141599999999999E-6</v>
+        <v>1.9860269999999998E-6</v>
       </c>
       <c r="I6">
-        <v>6.6995619999999998E-7</v>
-      </c>
-      <c r="J6">
-        <v>1.197815E-6</v>
+        <v>1.2660029999999999E-6</v>
       </c>
       <c r="L6">
-        <v>1.2059209999999999E-6</v>
+        <v>1.306057E-6</v>
       </c>
       <c r="M6">
-        <v>1.0700229999999999E-6</v>
+        <v>1.0857579999999999E-6</v>
       </c>
       <c r="N6">
-        <v>6.6804890000000004E-7</v>
+        <v>1.2817379999999999E-6</v>
       </c>
       <c r="O6">
-        <v>2.2363659999999998E-6</v>
+        <v>2.2377970000000001E-6</v>
       </c>
       <c r="P6">
-        <v>2.0141599999999999E-6</v>
+        <v>1.9860269999999998E-6</v>
       </c>
       <c r="Q6">
-        <v>1.197815E-6</v>
+        <v>1.2660029999999999E-6</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -9817,46 +9857,43 @@
         <v>320</v>
       </c>
       <c r="B7">
-        <v>2.2883420000000001E-6</v>
+        <v>2.2702220000000001E-6</v>
       </c>
       <c r="C7">
-        <v>2.0341869999999998E-6</v>
+        <v>2.0418169999999999E-6</v>
       </c>
       <c r="D7">
-        <v>1.2001989999999999E-6</v>
+        <v>2.332211E-6</v>
       </c>
       <c r="F7">
         <v>320</v>
       </c>
       <c r="G7">
-        <v>4.4436449999999999E-6</v>
+        <v>4.3463710000000003E-6</v>
       </c>
       <c r="H7">
-        <v>3.874302E-6</v>
+        <v>3.9601329999999998E-6</v>
       </c>
       <c r="I7">
-        <v>1.2001989999999999E-6</v>
-      </c>
-      <c r="J7">
-        <v>2.2497179999999999E-6</v>
+        <v>2.3622509999999999E-6</v>
       </c>
       <c r="L7">
-        <v>2.2883420000000001E-6</v>
+        <v>2.2702220000000001E-6</v>
       </c>
       <c r="M7">
-        <v>2.0341869999999998E-6</v>
+        <v>2.0418169999999999E-6</v>
       </c>
       <c r="N7">
-        <v>1.2001989999999999E-6</v>
+        <v>2.332211E-6</v>
       </c>
       <c r="O7">
-        <v>4.4436449999999999E-6</v>
+        <v>4.3463710000000003E-6</v>
       </c>
       <c r="P7">
-        <v>3.874302E-6</v>
+        <v>3.9601329999999998E-6</v>
       </c>
       <c r="Q7">
-        <v>2.2497179999999999E-6</v>
+        <v>2.3622509999999999E-6</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -9864,46 +9901,43 @@
         <v>640</v>
       </c>
       <c r="B8">
-        <v>4.4798849999999999E-6</v>
+        <v>4.506111E-6</v>
       </c>
       <c r="C8">
-        <v>3.7879939999999998E-6</v>
+        <v>3.7860869999999999E-6</v>
       </c>
       <c r="D8">
-        <v>2.1438600000000001E-6</v>
+        <v>4.5356750000000004E-6</v>
       </c>
       <c r="F8">
         <v>640</v>
       </c>
       <c r="G8">
-        <v>8.721828E-6</v>
+        <v>8.5740089999999992E-6</v>
       </c>
       <c r="H8">
-        <v>7.602215E-6</v>
+        <v>7.6160429999999997E-6</v>
       </c>
       <c r="I8">
-        <v>2.2640229999999998E-6</v>
-      </c>
-      <c r="J8">
-        <v>4.5576100000000001E-6</v>
+        <v>4.548073E-6</v>
       </c>
       <c r="L8">
-        <v>4.4798849999999999E-6</v>
+        <v>4.506111E-6</v>
       </c>
       <c r="M8">
-        <v>3.7879939999999998E-6</v>
+        <v>3.7860869999999999E-6</v>
       </c>
       <c r="N8">
-        <v>2.1438600000000001E-6</v>
+        <v>4.5356750000000004E-6</v>
       </c>
       <c r="O8">
-        <v>8.721828E-6</v>
+        <v>8.5740089999999992E-6</v>
       </c>
       <c r="P8">
-        <v>7.602215E-6</v>
+        <v>7.6160429999999997E-6</v>
       </c>
       <c r="Q8">
-        <v>4.5576100000000001E-6</v>
+        <v>4.548073E-6</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -9911,46 +9945,43 @@
         <v>1280</v>
       </c>
       <c r="B9">
-        <v>8.4419249999999996E-6</v>
+        <v>8.4261890000000006E-6</v>
       </c>
       <c r="C9">
-        <v>7.4100490000000001E-6</v>
+        <v>7.3981289999999997E-6</v>
       </c>
       <c r="D9">
-        <v>4.1003229999999999E-6</v>
+        <v>8.8744159999999997E-6</v>
       </c>
       <c r="F9">
         <v>1280</v>
       </c>
       <c r="G9">
-        <v>1.703405E-5</v>
+        <v>1.6997809999999999E-5</v>
       </c>
       <c r="H9">
-        <v>1.5088080000000001E-5</v>
+        <v>1.507378E-5</v>
       </c>
       <c r="I9">
-        <v>4.3721199999999997E-6</v>
-      </c>
-      <c r="J9">
-        <v>8.5577960000000004E-6</v>
+        <v>8.9159009999999999E-6</v>
       </c>
       <c r="L9">
-        <v>8.4419249999999996E-6</v>
+        <v>8.4261890000000006E-6</v>
       </c>
       <c r="M9">
-        <v>7.4100490000000001E-6</v>
+        <v>7.3981289999999997E-6</v>
       </c>
       <c r="N9">
-        <v>4.1003229999999999E-6</v>
+        <v>8.8744159999999997E-6</v>
       </c>
       <c r="O9">
-        <v>1.703405E-5</v>
+        <v>1.6997809999999999E-5</v>
       </c>
       <c r="P9">
-        <v>1.5088080000000001E-5</v>
+        <v>1.507378E-5</v>
       </c>
       <c r="Q9">
-        <v>8.5577960000000004E-6</v>
+        <v>8.9159009999999999E-6</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -9958,46 +9989,43 @@
         <v>2560</v>
       </c>
       <c r="B10">
-        <v>1.6742229999999999E-5</v>
+        <v>1.6819950000000001E-5</v>
       </c>
       <c r="C10">
-        <v>1.6572E-5</v>
+        <v>1.5759940000000001E-5</v>
       </c>
       <c r="D10">
-        <v>8.4381100000000004E-6</v>
+        <v>1.7804150000000001E-5</v>
       </c>
       <c r="F10">
         <v>2560</v>
       </c>
       <c r="G10">
-        <v>3.395176E-5</v>
+        <v>3.3946039999999999E-5</v>
       </c>
       <c r="H10">
-        <v>3.0312060000000001E-5</v>
+        <v>3.005791E-5</v>
       </c>
       <c r="I10">
-        <v>8.8682170000000007E-6</v>
-      </c>
-      <c r="J10">
-        <v>1.719189E-5</v>
+        <v>1.7685889999999999E-5</v>
       </c>
       <c r="L10">
-        <v>1.6742229999999999E-5</v>
+        <v>1.6819950000000001E-5</v>
       </c>
       <c r="M10">
-        <v>1.6572E-5</v>
+        <v>1.5759940000000001E-5</v>
       </c>
       <c r="N10">
-        <v>8.4381100000000004E-6</v>
+        <v>1.7804150000000001E-5</v>
       </c>
       <c r="O10">
-        <v>3.395176E-5</v>
+        <v>3.3946039999999999E-5</v>
       </c>
       <c r="P10">
-        <v>3.0312060000000001E-5</v>
+        <v>3.005791E-5</v>
       </c>
       <c r="Q10">
-        <v>1.719189E-5</v>
+        <v>1.7685889999999999E-5</v>
       </c>
     </row>
   </sheetData>
